--- a/template_excel/contoh_data_input_pembagian_kelas_2.xlsx
+++ b/template_excel/contoh_data_input_pembagian_kelas_2.xlsx
@@ -47,7 +47,7 @@
     <t>7a</t>
   </si>
   <si>
-    <t>197512012020041344</t>
+    <t>197911102020041898</t>
   </si>
   <si>
     <t>petunjuk</t>
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>

--- a/template_excel/contoh_data_input_pembagian_kelas_2.xlsx
+++ b/template_excel/contoh_data_input_pembagian_kelas_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t>7a</t>
   </si>
   <si>
-    <t>198609252020041004</t>
+    <t>197512012020041344</t>
   </si>
   <si>
     <t>petunjuk</t>
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4">
-        <v>20085</v>
+        <v>20113</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:9">
       <c r="A3" s="4">
-        <v>20086</v>
+        <v>20114</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
